--- a/report.xlsx
+++ b/report.xlsx
@@ -444,10 +444,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -733,19 +733,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>91795</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>91340</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>305</v>
       </c>
     </row>
@@ -770,7 +770,6 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="2" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
